--- a/output/proc_2_NHSS/Descript_NHSS.xlsx
+++ b/output/proc_2_NHSS/Descript_NHSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income2</t>
   </si>
   <si>
     <t xml:space="preserve">edu</t>
@@ -453,25 +456,25 @@
         <v>282</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.000000000000005401510602077</v>
+        <v>-0.0000000000000000129996609418723</v>
       </c>
       <c r="D3" t="n">
-        <v>2561.48082142689</v>
+        <v>2.56148082142689</v>
       </c>
       <c r="E3" t="n">
-        <v>-4980.28433450118</v>
+        <v>-4.98028433450118</v>
       </c>
       <c r="F3" t="n">
-        <v>-1574.57427074231</v>
+        <v>-1.57457427074231</v>
       </c>
       <c r="G3" t="n">
-        <v>-636.455752008566</v>
+        <v>-0.636455752008566</v>
       </c>
       <c r="H3" t="n">
-        <v>1137.68013087621</v>
+        <v>1.13768013087621</v>
       </c>
       <c r="I3" t="n">
-        <v>11069.9229131784</v>
+        <v>11.0699229131785</v>
       </c>
     </row>
     <row r="4">
@@ -482,24 +485,53 @@
         <v>282</v>
       </c>
       <c r="C4" t="n">
+        <v>6.53791738861388</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.1350572466699</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000406504120631675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.605673881433441</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.97130056034504</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.8019088939939</v>
+      </c>
+      <c r="I4" t="n">
+        <v>122.543193303713</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>282</v>
+      </c>
+      <c r="C5" t="n">
         <v>7.38531205673759</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.90785875822839</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>1.6952</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>6.14725</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>7.002</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>8.744725</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>11.65</v>
       </c>
     </row>
@@ -548,7 +580,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
         <v>282</v>
@@ -583,25 +615,25 @@
         <v>282</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.000000000000005401510602077</v>
+        <v>-0.0000000000000000129996609418723</v>
       </c>
       <c r="D3" t="n">
-        <v>2561.48082142689</v>
+        <v>2.56148082142689</v>
       </c>
       <c r="E3" t="n">
-        <v>-4980.28433450118</v>
+        <v>-4.98028433450118</v>
       </c>
       <c r="F3" t="n">
-        <v>-1574.57427074231</v>
+        <v>-1.57457427074231</v>
       </c>
       <c r="G3" t="n">
-        <v>-636.455752008566</v>
+        <v>-0.636455752008566</v>
       </c>
       <c r="H3" t="n">
-        <v>1137.68013087621</v>
+        <v>1.13768013087621</v>
       </c>
       <c r="I3" t="n">
-        <v>11069.9229131784</v>
+        <v>11.0699229131785</v>
       </c>
     </row>
     <row r="4">
@@ -612,24 +644,53 @@
         <v>282</v>
       </c>
       <c r="C4" t="n">
+        <v>6.53791738861388</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.1350572466699</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000406504120631675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.605673881433441</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.97130056034504</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.8019088939939</v>
+      </c>
+      <c r="I4" t="n">
+        <v>122.543193303713</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>282</v>
+      </c>
+      <c r="C5" t="n">
         <v>7.38531205673759</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.90785875822839</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>1.6952</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>6.14725</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>7.002</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>8.744725</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>11.65</v>
       </c>
     </row>
@@ -678,7 +739,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>282</v>
@@ -713,25 +774,25 @@
         <v>282</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.000000000000005401510602077</v>
+        <v>-0.0000000000000000129996609418723</v>
       </c>
       <c r="D3" t="n">
-        <v>2561.48082142689</v>
+        <v>2.56148082142689</v>
       </c>
       <c r="E3" t="n">
-        <v>-4980.28433450118</v>
+        <v>-4.98028433450118</v>
       </c>
       <c r="F3" t="n">
-        <v>-1574.57427074231</v>
+        <v>-1.57457427074231</v>
       </c>
       <c r="G3" t="n">
-        <v>-636.455752008566</v>
+        <v>-0.636455752008566</v>
       </c>
       <c r="H3" t="n">
-        <v>1137.68013087621</v>
+        <v>1.13768013087621</v>
       </c>
       <c r="I3" t="n">
-        <v>11069.9229131784</v>
+        <v>11.0699229131785</v>
       </c>
     </row>
     <row r="4">
@@ -742,24 +803,53 @@
         <v>282</v>
       </c>
       <c r="C4" t="n">
+        <v>6.53791738861388</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.1350572466699</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000406504120631675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.605673881433441</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.97130056034504</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.8019088939939</v>
+      </c>
+      <c r="I4" t="n">
+        <v>122.543193303713</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>282</v>
+      </c>
+      <c r="C5" t="n">
         <v>7.38531205673759</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.90785875822839</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>1.6952</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>6.14725</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>7.002</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>8.744725</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>11.65</v>
       </c>
     </row>

--- a/output/proc_2_NHSS/Descript_NHSS.xlsx
+++ b/output/proc_2_NHSS/Descript_NHSS.xlsx
@@ -1,77 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\GitHubProj\HealthInequality2018Dec\output\proc_2_NHSS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_0727758DE32B3702B6CC355095E6B3DA2272FEB6" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="illnessratio" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="illnessday" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="chronicratio" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="illnessratio" sheetId="1" r:id="rId1"/>
+    <sheet name="illnessday" sheetId="2" r:id="rId2"/>
+    <sheet name="chronicratio" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stdev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">illnessratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">illnessday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chronicratio</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>illnessratio</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>income2</t>
+  </si>
+  <si>
+    <t>edu</t>
+  </si>
+  <si>
+    <t>illnessday</t>
+  </si>
+  <si>
+    <t>chronicratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,9 +113,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -383,14 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,137 +444,138 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
-        <v>282</v>
-      </c>
-      <c r="C2" t="n">
-        <v>16.3490820431305</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.52745989819396</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.70636919755308</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.425</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2">
+        <v>282</v>
+      </c>
+      <c r="C2">
+        <v>16.349082043130501</v>
+      </c>
+      <c r="D2">
+        <v>7.5274598981939604</v>
+      </c>
+      <c r="E2">
+        <v>3.7063691975530801</v>
+      </c>
+      <c r="F2">
+        <v>11.425000000000001</v>
+      </c>
+      <c r="G2">
         <v>14.6993975903614</v>
       </c>
-      <c r="H2" t="n">
-        <v>19.2869901521179</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>19.286990152117902</v>
+      </c>
+      <c r="I2">
         <v>53.2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>282</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.0000000000000000129996609418723</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>282</v>
+      </c>
+      <c r="C3">
+        <v>-1.29996609418723E-17</v>
+      </c>
+      <c r="D3">
         <v>2.56148082142689</v>
       </c>
-      <c r="E3" t="n">
-        <v>-4.98028433450118</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>-4.9802843345011798</v>
+      </c>
+      <c r="F3">
         <v>-1.57457427074231</v>
       </c>
-      <c r="G3" t="n">
-        <v>-0.636455752008566</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.13768013087621</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3">
+        <v>-0.63645575200856597</v>
+      </c>
+      <c r="H3">
+        <v>1.1376801308762099</v>
+      </c>
+      <c r="I3">
         <v>11.0699229131785</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>282</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.53791738861388</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>282</v>
+      </c>
+      <c r="C4">
+        <v>6.5379173886138799</v>
+      </c>
+      <c r="D4">
         <v>15.1350572466699</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.000406504120631675</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.605673881433441</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4">
+        <v>4.0650412063167497E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.60567388143344103</v>
+      </c>
+      <c r="G4">
         <v>1.97130056034504</v>
       </c>
-      <c r="H4" t="n">
-        <v>5.8019088939939</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>5.8019088939939003</v>
+      </c>
+      <c r="I4">
         <v>122.543193303713</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
-        <v>282</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.38531205673759</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.90785875822839</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B5">
+        <v>282</v>
+      </c>
+      <c r="C5">
+        <v>7.3853120567375896</v>
+      </c>
+      <c r="D5">
+        <v>1.9078587582283899</v>
+      </c>
+      <c r="E5">
         <v>1.6952</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.14725</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.744725</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="F5">
+        <v>6.1472499999999997</v>
+      </c>
+      <c r="G5">
+        <v>7.0019999999999998</v>
+      </c>
+      <c r="H5">
+        <v>8.7447250000000007</v>
+      </c>
+      <c r="I5">
         <v>11.65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,137 +604,140 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
-        <v>282</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1328.87588652482</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2">
+        <v>282</v>
+      </c>
+      <c r="C2">
+        <v>1328.8758865248201</v>
+      </c>
+      <c r="D2">
         <v>691.818678690561</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>231</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>854.75</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1167.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>1589.25</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>4128</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>282</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.0000000000000000129996609418723</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>282</v>
+      </c>
+      <c r="C3">
+        <v>-1.29996609418723E-17</v>
+      </c>
+      <c r="D3">
         <v>2.56148082142689</v>
       </c>
-      <c r="E3" t="n">
-        <v>-4.98028433450118</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>-4.9802843345011798</v>
+      </c>
+      <c r="F3">
         <v>-1.57457427074231</v>
       </c>
-      <c r="G3" t="n">
-        <v>-0.636455752008566</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.13768013087621</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3">
+        <v>-0.63645575200856597</v>
+      </c>
+      <c r="H3">
+        <v>1.1376801308762099</v>
+      </c>
+      <c r="I3">
         <v>11.0699229131785</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>282</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.53791738861388</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>282</v>
+      </c>
+      <c r="C4">
+        <v>6.5379173886138799</v>
+      </c>
+      <c r="D4">
         <v>15.1350572466699</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.000406504120631675</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.605673881433441</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4">
+        <v>4.0650412063167497E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.60567388143344103</v>
+      </c>
+      <c r="G4">
         <v>1.97130056034504</v>
       </c>
-      <c r="H4" t="n">
-        <v>5.8019088939939</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>5.8019088939939003</v>
+      </c>
+      <c r="I4">
         <v>122.543193303713</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
-        <v>282</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.38531205673759</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.90785875822839</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B5">
+        <v>282</v>
+      </c>
+      <c r="C5">
+        <v>7.3853120567375896</v>
+      </c>
+      <c r="D5">
+        <v>1.9078587582283899</v>
+      </c>
+      <c r="E5">
         <v>1.6952</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.14725</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.744725</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="F5">
+        <v>6.1472499999999997</v>
+      </c>
+      <c r="G5">
+        <v>7.0019999999999998</v>
+      </c>
+      <c r="H5">
+        <v>8.7447250000000007</v>
+      </c>
+      <c r="I5">
         <v>11.65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,124 +766,125 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="n">
-        <v>282</v>
-      </c>
-      <c r="C2" t="n">
-        <v>14.1397437048711</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.37633722617671</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.89416846652268</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.84445529592051</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2">
+        <v>282</v>
+      </c>
+      <c r="C2">
+        <v>14.139743704871099</v>
+      </c>
+      <c r="D2">
+        <v>6.3763372261767097</v>
+      </c>
+      <c r="E2">
+        <v>2.8941684665226801</v>
+      </c>
+      <c r="F2">
+        <v>9.8444552959205094</v>
+      </c>
+      <c r="G2">
         <v>12.9670040914606</v>
       </c>
-      <c r="H2" t="n">
-        <v>17.9701966324951</v>
-      </c>
-      <c r="I2" t="n">
-        <v>33.5530652603823</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="H2">
+        <v>17.970196632495099</v>
+      </c>
+      <c r="I2">
+        <v>33.553065260382297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>282</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.0000000000000000129996609418723</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3">
+        <v>282</v>
+      </c>
+      <c r="C3">
+        <v>-1.29996609418723E-17</v>
+      </c>
+      <c r="D3">
         <v>2.56148082142689</v>
       </c>
-      <c r="E3" t="n">
-        <v>-4.98028433450118</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>-4.9802843345011798</v>
+      </c>
+      <c r="F3">
         <v>-1.57457427074231</v>
       </c>
-      <c r="G3" t="n">
-        <v>-0.636455752008566</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.13768013087621</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3">
+        <v>-0.63645575200856597</v>
+      </c>
+      <c r="H3">
+        <v>1.1376801308762099</v>
+      </c>
+      <c r="I3">
         <v>11.0699229131785</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>282</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.53791738861388</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4">
+        <v>282</v>
+      </c>
+      <c r="C4">
+        <v>6.5379173886138799</v>
+      </c>
+      <c r="D4">
         <v>15.1350572466699</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.000406504120631675</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.605673881433441</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4">
+        <v>4.0650412063167497E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.60567388143344103</v>
+      </c>
+      <c r="G4">
         <v>1.97130056034504</v>
       </c>
-      <c r="H4" t="n">
-        <v>5.8019088939939</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>5.8019088939939003</v>
+      </c>
+      <c r="I4">
         <v>122.543193303713</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
-        <v>282</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.38531205673759</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.90785875822839</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B5">
+        <v>282</v>
+      </c>
+      <c r="C5">
+        <v>7.3853120567375896</v>
+      </c>
+      <c r="D5">
+        <v>1.9078587582283899</v>
+      </c>
+      <c r="E5">
         <v>1.6952</v>
       </c>
-      <c r="F5" t="n">
-        <v>6.14725</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7.002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.744725</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="F5">
+        <v>6.1472499999999997</v>
+      </c>
+      <c r="G5">
+        <v>7.0019999999999998</v>
+      </c>
+      <c r="H5">
+        <v>8.7447250000000007</v>
+      </c>
+      <c r="I5">
         <v>11.65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/proc_2_NHSS/Descript_NHSS.xlsx
+++ b/output/proc_2_NHSS/Descript_NHSS.xlsx
@@ -1,91 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\GitHubProj\HealthInequality2018Dec\output\proc_2_NHSS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0727758DE32B3702B6CC355095E6B3DA2272FEB6" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="illnessratio" sheetId="1" r:id="rId1"/>
-    <sheet name="illnessday" sheetId="2" r:id="rId2"/>
-    <sheet name="chronicratio" sheetId="3" r:id="rId3"/>
+    <sheet name="illnessratio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="illnessday" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="chronicratio" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Stdev</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>illnessratio</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>income2</t>
-  </si>
-  <si>
-    <t>edu</t>
-  </si>
-  <si>
-    <t>illnessday</t>
-  </si>
-  <si>
-    <t>chronicratio</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illnessratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">illnessday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chronicratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -113,18 +99,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -406,16 +383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,138 +419,137 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>282</v>
-      </c>
-      <c r="C2">
-        <v>16.349082043130501</v>
-      </c>
-      <c r="D2">
-        <v>7.5274598981939604</v>
-      </c>
-      <c r="E2">
-        <v>3.7063691975530801</v>
-      </c>
-      <c r="F2">
-        <v>11.425000000000001</v>
-      </c>
-      <c r="G2">
+      <c r="B2" t="n">
+        <v>282</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.3490820431305</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.52745989819396</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.70636919755308</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11.425</v>
+      </c>
+      <c r="G2" t="n">
         <v>14.6993975903614</v>
       </c>
-      <c r="H2">
-        <v>19.286990152117902</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="n">
+        <v>19.2869901521179</v>
+      </c>
+      <c r="I2" t="n">
         <v>53.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>282</v>
-      </c>
-      <c r="C3">
-        <v>-1.29996609418723E-17</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="n">
+        <v>282</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.0000000000000000129996609418723</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.56148082142689</v>
       </c>
-      <c r="E3">
-        <v>-4.9802843345011798</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="n">
+        <v>-4.98028433450118</v>
+      </c>
+      <c r="F3" t="n">
         <v>-1.57457427074231</v>
       </c>
-      <c r="G3">
-        <v>-0.63645575200856597</v>
-      </c>
-      <c r="H3">
-        <v>1.1376801308762099</v>
-      </c>
-      <c r="I3">
+      <c r="G3" t="n">
+        <v>-0.636455752008566</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.13768013087621</v>
+      </c>
+      <c r="I3" t="n">
         <v>11.0699229131785</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>282</v>
-      </c>
-      <c r="C4">
-        <v>6.5379173886138799</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="n">
+        <v>282</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.53791738861388</v>
+      </c>
+      <c r="D4" t="n">
         <v>15.1350572466699</v>
       </c>
-      <c r="E4">
-        <v>4.0650412063167497E-4</v>
-      </c>
-      <c r="F4">
-        <v>0.60567388143344103</v>
-      </c>
-      <c r="G4">
+      <c r="E4" t="n">
+        <v>0.000406504120631675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.605673881433441</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.97130056034504</v>
       </c>
-      <c r="H4">
-        <v>5.8019088939939003</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="n">
+        <v>5.8019088939939</v>
+      </c>
+      <c r="I4" t="n">
         <v>122.543193303713</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>282</v>
-      </c>
-      <c r="C5">
-        <v>7.3853120567375896</v>
-      </c>
-      <c r="D5">
-        <v>1.9078587582283899</v>
-      </c>
-      <c r="E5">
+      <c r="B5" t="n">
+        <v>282</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.38531205673759</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.90785875822839</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.6952</v>
       </c>
-      <c r="F5">
-        <v>6.1472499999999997</v>
-      </c>
-      <c r="G5">
-        <v>7.0019999999999998</v>
-      </c>
-      <c r="H5">
-        <v>8.7447250000000007</v>
-      </c>
-      <c r="I5">
+      <c r="F5" t="n">
+        <v>6.14725</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.002</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.744725</v>
+      </c>
+      <c r="I5" t="n">
         <v>11.65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,140 +578,137 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>282</v>
-      </c>
-      <c r="C2">
-        <v>1328.8758865248201</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="n">
+        <v>282</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1328.87588652482</v>
+      </c>
+      <c r="D2" t="n">
         <v>691.818678690561</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>231</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>854.75</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>1167.5</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>1589.25</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>4128</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>282</v>
-      </c>
-      <c r="C3">
-        <v>-1.29996609418723E-17</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="n">
+        <v>282</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.0000000000000000129996609418723</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.56148082142689</v>
       </c>
-      <c r="E3">
-        <v>-4.9802843345011798</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="n">
+        <v>-4.98028433450118</v>
+      </c>
+      <c r="F3" t="n">
         <v>-1.57457427074231</v>
       </c>
-      <c r="G3">
-        <v>-0.63645575200856597</v>
-      </c>
-      <c r="H3">
-        <v>1.1376801308762099</v>
-      </c>
-      <c r="I3">
+      <c r="G3" t="n">
+        <v>-0.636455752008566</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.13768013087621</v>
+      </c>
+      <c r="I3" t="n">
         <v>11.0699229131785</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>282</v>
-      </c>
-      <c r="C4">
-        <v>6.5379173886138799</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="n">
+        <v>282</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.53791738861388</v>
+      </c>
+      <c r="D4" t="n">
         <v>15.1350572466699</v>
       </c>
-      <c r="E4">
-        <v>4.0650412063167497E-4</v>
-      </c>
-      <c r="F4">
-        <v>0.60567388143344103</v>
-      </c>
-      <c r="G4">
+      <c r="E4" t="n">
+        <v>0.000406504120631675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.605673881433441</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.97130056034504</v>
       </c>
-      <c r="H4">
-        <v>5.8019088939939003</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="n">
+        <v>5.8019088939939</v>
+      </c>
+      <c r="I4" t="n">
         <v>122.543193303713</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>282</v>
-      </c>
-      <c r="C5">
-        <v>7.3853120567375896</v>
-      </c>
-      <c r="D5">
-        <v>1.9078587582283899</v>
-      </c>
-      <c r="E5">
+      <c r="B5" t="n">
+        <v>282</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.38531205673759</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.90785875822839</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.6952</v>
       </c>
-      <c r="F5">
-        <v>6.1472499999999997</v>
-      </c>
-      <c r="G5">
-        <v>7.0019999999999998</v>
-      </c>
-      <c r="H5">
-        <v>8.7447250000000007</v>
-      </c>
-      <c r="I5">
+      <c r="F5" t="n">
+        <v>6.14725</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.002</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.744725</v>
+      </c>
+      <c r="I5" t="n">
         <v>11.65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,125 +737,124 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>282</v>
-      </c>
-      <c r="C2">
-        <v>14.139743704871099</v>
-      </c>
-      <c r="D2">
-        <v>6.3763372261767097</v>
-      </c>
-      <c r="E2">
-        <v>2.8941684665226801</v>
-      </c>
-      <c r="F2">
-        <v>9.8444552959205094</v>
-      </c>
-      <c r="G2">
+      <c r="B2" t="n">
+        <v>282</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.1397437048711</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.37633722617671</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.89416846652268</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.84445529592051</v>
+      </c>
+      <c r="G2" t="n">
         <v>12.9670040914606</v>
       </c>
-      <c r="H2">
-        <v>17.970196632495099</v>
-      </c>
-      <c r="I2">
-        <v>33.553065260382297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="n">
+        <v>17.9701966324951</v>
+      </c>
+      <c r="I2" t="n">
+        <v>33.5530652603823</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>282</v>
-      </c>
-      <c r="C3">
-        <v>-1.29996609418723E-17</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="n">
+        <v>282</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.0000000000000000129996609418723</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.56148082142689</v>
       </c>
-      <c r="E3">
-        <v>-4.9802843345011798</v>
-      </c>
-      <c r="F3">
+      <c r="E3" t="n">
+        <v>-4.98028433450118</v>
+      </c>
+      <c r="F3" t="n">
         <v>-1.57457427074231</v>
       </c>
-      <c r="G3">
-        <v>-0.63645575200856597</v>
-      </c>
-      <c r="H3">
-        <v>1.1376801308762099</v>
-      </c>
-      <c r="I3">
+      <c r="G3" t="n">
+        <v>-0.636455752008566</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.13768013087621</v>
+      </c>
+      <c r="I3" t="n">
         <v>11.0699229131785</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>282</v>
-      </c>
-      <c r="C4">
-        <v>6.5379173886138799</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="n">
+        <v>282</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.53791738861388</v>
+      </c>
+      <c r="D4" t="n">
         <v>15.1350572466699</v>
       </c>
-      <c r="E4">
-        <v>4.0650412063167497E-4</v>
-      </c>
-      <c r="F4">
-        <v>0.60567388143344103</v>
-      </c>
-      <c r="G4">
+      <c r="E4" t="n">
+        <v>0.000406504120631675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.605673881433441</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.97130056034504</v>
       </c>
-      <c r="H4">
-        <v>5.8019088939939003</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="n">
+        <v>5.8019088939939</v>
+      </c>
+      <c r="I4" t="n">
         <v>122.543193303713</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>282</v>
-      </c>
-      <c r="C5">
-        <v>7.3853120567375896</v>
-      </c>
-      <c r="D5">
-        <v>1.9078587582283899</v>
-      </c>
-      <c r="E5">
+      <c r="B5" t="n">
+        <v>282</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.38531205673759</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.90785875822839</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.6952</v>
       </c>
-      <c r="F5">
-        <v>6.1472499999999997</v>
-      </c>
-      <c r="G5">
-        <v>7.0019999999999998</v>
-      </c>
-      <c r="H5">
-        <v>8.7447250000000007</v>
-      </c>
-      <c r="I5">
+      <c r="F5" t="n">
+        <v>6.14725</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.002</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.744725</v>
+      </c>
+      <c r="I5" t="n">
         <v>11.65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>